--- a/assets/resources/MD_TVD_Template.xlsx
+++ b/assets/resources/MD_TVD_Template.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="8" documentId="8_{F8500AB1-3697-426C-9465-B1707DE7D511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5AA70EA4-87F1-4B79-B2D1-1205F0F2CABD}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F42E918B-13F5-4725-8B6B-3499375128AF}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{F42E918B-13F5-4725-8B6B-3499375128AF}"/>
   </bookViews>
   <sheets>
     <sheet name="Calculation" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">Calculation!$A$1:$K$35</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">TVD!$A$1:$B$174</definedName>
   </definedNames>
-  <calcPr calcId="191029" calcOnSave="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -471,19 +471,23 @@
       <alignment horizontal="center"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90"/>
       <protection locked="0" hidden="1"/>
     </xf>
     <xf numFmtId="2" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0" hidden="1"/>
     </xf>
@@ -499,23 +503,19 @@
       <alignment horizontal="center"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="10" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="10" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0" hidden="1"/>
     </xf>
@@ -899,7 +899,7 @@
   <dimension ref="A1:R499"/>
   <sheetViews>
     <sheetView tabSelected="1" showOutlineSymbols="0" view="pageBreakPreview" zoomScale="84" zoomScaleNormal="100" zoomScaleSheetLayoutView="98" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="D2" sqref="D2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -945,8 +945,8 @@
       <c r="C2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
       <c r="F2" s="8" t="s">
         <v>21</v>
       </c>
@@ -974,8 +974,8 @@
       <c r="C3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
       <c r="F3" s="8" t="s">
         <v>21</v>
       </c>
@@ -999,8 +999,8 @@
       <c r="C4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
       <c r="F4" s="8" t="s">
         <v>14</v>
       </c>
@@ -1033,20 +1033,20 @@
       <c r="R5" s="30"/>
     </row>
     <row r="6" spans="1:18" ht="22.8" x14ac:dyDescent="0.4">
-      <c r="A6" s="55" t="s">
+      <c r="A6" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="53" t="s">
+      <c r="B6" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53" t="s">
+      <c r="C6" s="48"/>
+      <c r="D6" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
       <c r="I6" s="14" t="s">
         <v>8</v>
       </c>
@@ -1057,15 +1057,15 @@
       <c r="R6" s="30"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="55"/>
+      <c r="A7" s="46"/>
       <c r="B7" s="16" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="16"/>
-      <c r="D7" s="56" t="s">
+      <c r="D7" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="57"/>
+      <c r="E7" s="50"/>
       <c r="F7" s="54" t="s">
         <v>10</v>
       </c>
@@ -1095,10 +1095,10 @@
       <c r="F8" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="52" t="s">
+      <c r="G8" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="52"/>
+      <c r="H8" s="53"/>
       <c r="I8" s="1" t="s">
         <v>24</v>
       </c>
@@ -1998,8 +1998,8 @@
       <c r="D31" s="1"/>
       <c r="E31" s="2"/>
       <c r="F31" s="1"/>
-      <c r="G31" s="48"/>
-      <c r="H31" s="49"/>
+      <c r="G31" s="55"/>
+      <c r="H31" s="56"/>
       <c r="I31" s="2"/>
       <c r="J31" s="22"/>
       <c r="K31" s="1"/>
@@ -2070,8 +2070,8 @@
       <c r="D35" s="31"/>
       <c r="E35" s="34"/>
       <c r="F35" s="31"/>
-      <c r="G35" s="46"/>
-      <c r="H35" s="46"/>
+      <c r="G35" s="57"/>
+      <c r="H35" s="57"/>
       <c r="I35" s="34"/>
       <c r="J35" s="35"/>
       <c r="K35" s="31"/>
@@ -2088,8 +2088,8 @@
       <c r="D36" s="31"/>
       <c r="E36" s="34"/>
       <c r="F36" s="31"/>
-      <c r="G36" s="46"/>
-      <c r="H36" s="46"/>
+      <c r="G36" s="57"/>
+      <c r="H36" s="57"/>
       <c r="I36" s="34"/>
       <c r="J36" s="35"/>
       <c r="K36" s="31"/>
@@ -2106,8 +2106,8 @@
       <c r="D37" s="31"/>
       <c r="E37" s="34"/>
       <c r="F37" s="31"/>
-      <c r="G37" s="46"/>
-      <c r="H37" s="46"/>
+      <c r="G37" s="57"/>
+      <c r="H37" s="57"/>
       <c r="I37" s="34"/>
       <c r="J37" s="35"/>
       <c r="K37" s="31"/>
@@ -2124,8 +2124,8 @@
       <c r="D38" s="31"/>
       <c r="E38" s="34"/>
       <c r="F38" s="31"/>
-      <c r="G38" s="46"/>
-      <c r="H38" s="46"/>
+      <c r="G38" s="57"/>
+      <c r="H38" s="57"/>
       <c r="I38" s="34"/>
       <c r="J38" s="35"/>
       <c r="K38" s="31"/>
@@ -2142,8 +2142,8 @@
       <c r="D39" s="31"/>
       <c r="E39" s="34"/>
       <c r="F39" s="31"/>
-      <c r="G39" s="46"/>
-      <c r="H39" s="46"/>
+      <c r="G39" s="57"/>
+      <c r="H39" s="57"/>
       <c r="I39" s="34"/>
       <c r="J39" s="35"/>
       <c r="K39" s="31"/>
@@ -2160,8 +2160,8 @@
       <c r="D40" s="31"/>
       <c r="E40" s="34"/>
       <c r="F40" s="31"/>
-      <c r="G40" s="46"/>
-      <c r="H40" s="46"/>
+      <c r="G40" s="57"/>
+      <c r="H40" s="57"/>
       <c r="I40" s="34"/>
       <c r="J40" s="35"/>
       <c r="K40" s="31"/>
@@ -2178,8 +2178,8 @@
       <c r="D41" s="31"/>
       <c r="E41" s="34"/>
       <c r="F41" s="31"/>
-      <c r="G41" s="46"/>
-      <c r="H41" s="46"/>
+      <c r="G41" s="57"/>
+      <c r="H41" s="57"/>
       <c r="I41" s="34"/>
       <c r="J41" s="35"/>
       <c r="K41" s="31"/>
@@ -2196,8 +2196,8 @@
       <c r="D42" s="31"/>
       <c r="E42" s="34"/>
       <c r="F42" s="31"/>
-      <c r="G42" s="46"/>
-      <c r="H42" s="46"/>
+      <c r="G42" s="57"/>
+      <c r="H42" s="57"/>
       <c r="I42" s="34"/>
       <c r="J42" s="35"/>
       <c r="K42" s="31"/>
@@ -2214,8 +2214,8 @@
       <c r="D43" s="31"/>
       <c r="E43" s="34"/>
       <c r="F43" s="31"/>
-      <c r="G43" s="46"/>
-      <c r="H43" s="46"/>
+      <c r="G43" s="57"/>
+      <c r="H43" s="57"/>
       <c r="I43" s="34"/>
       <c r="J43" s="35"/>
       <c r="K43" s="31"/>
@@ -2232,8 +2232,8 @@
       <c r="D44" s="31"/>
       <c r="E44" s="34"/>
       <c r="F44" s="31"/>
-      <c r="G44" s="46"/>
-      <c r="H44" s="46"/>
+      <c r="G44" s="57"/>
+      <c r="H44" s="57"/>
       <c r="I44" s="34"/>
       <c r="J44" s="35"/>
       <c r="K44" s="31"/>
@@ -2250,8 +2250,8 @@
       <c r="D45" s="31"/>
       <c r="E45" s="34"/>
       <c r="F45" s="31"/>
-      <c r="G45" s="46"/>
-      <c r="H45" s="46"/>
+      <c r="G45" s="57"/>
+      <c r="H45" s="57"/>
       <c r="I45" s="34"/>
       <c r="J45" s="35"/>
       <c r="K45" s="31"/>
@@ -2268,8 +2268,8 @@
       <c r="D46" s="31"/>
       <c r="E46" s="34"/>
       <c r="F46" s="31"/>
-      <c r="G46" s="46"/>
-      <c r="H46" s="46"/>
+      <c r="G46" s="57"/>
+      <c r="H46" s="57"/>
       <c r="I46" s="34"/>
       <c r="J46" s="35"/>
       <c r="K46" s="31"/>
@@ -2286,8 +2286,8 @@
       <c r="D47" s="31"/>
       <c r="E47" s="34"/>
       <c r="F47" s="31"/>
-      <c r="G47" s="46"/>
-      <c r="H47" s="46"/>
+      <c r="G47" s="57"/>
+      <c r="H47" s="57"/>
       <c r="I47" s="34"/>
       <c r="J47" s="35"/>
       <c r="K47" s="31"/>
@@ -2304,8 +2304,8 @@
       <c r="D48" s="31"/>
       <c r="E48" s="34"/>
       <c r="F48" s="31"/>
-      <c r="G48" s="46"/>
-      <c r="H48" s="46"/>
+      <c r="G48" s="57"/>
+      <c r="H48" s="57"/>
       <c r="I48" s="34"/>
       <c r="J48" s="35"/>
       <c r="K48" s="31"/>
@@ -2322,8 +2322,8 @@
       <c r="D49" s="31"/>
       <c r="E49" s="34"/>
       <c r="F49" s="31"/>
-      <c r="G49" s="46"/>
-      <c r="H49" s="46"/>
+      <c r="G49" s="57"/>
+      <c r="H49" s="57"/>
       <c r="I49" s="34"/>
       <c r="J49" s="35"/>
       <c r="K49" s="31"/>
@@ -2340,8 +2340,8 @@
       <c r="D50" s="31"/>
       <c r="E50" s="34"/>
       <c r="F50" s="31"/>
-      <c r="G50" s="46"/>
-      <c r="H50" s="46"/>
+      <c r="G50" s="57"/>
+      <c r="H50" s="57"/>
       <c r="I50" s="34"/>
       <c r="J50" s="35"/>
       <c r="K50" s="31"/>
@@ -2358,8 +2358,8 @@
       <c r="D51" s="31"/>
       <c r="E51" s="34"/>
       <c r="F51" s="31"/>
-      <c r="G51" s="46"/>
-      <c r="H51" s="46"/>
+      <c r="G51" s="57"/>
+      <c r="H51" s="57"/>
       <c r="I51" s="34"/>
       <c r="J51" s="35"/>
       <c r="K51" s="31"/>
@@ -2376,8 +2376,8 @@
       <c r="D52" s="31"/>
       <c r="E52" s="34"/>
       <c r="F52" s="31"/>
-      <c r="G52" s="46"/>
-      <c r="H52" s="46"/>
+      <c r="G52" s="57"/>
+      <c r="H52" s="57"/>
       <c r="I52" s="34"/>
       <c r="J52" s="35"/>
       <c r="K52" s="31"/>
@@ -2394,8 +2394,8 @@
       <c r="D53" s="31"/>
       <c r="E53" s="34"/>
       <c r="F53" s="31"/>
-      <c r="G53" s="46"/>
-      <c r="H53" s="46"/>
+      <c r="G53" s="57"/>
+      <c r="H53" s="57"/>
       <c r="I53" s="34"/>
       <c r="J53" s="35"/>
       <c r="K53" s="31"/>
@@ -2412,8 +2412,8 @@
       <c r="D54" s="31"/>
       <c r="E54" s="34"/>
       <c r="F54" s="31"/>
-      <c r="G54" s="46"/>
-      <c r="H54" s="46"/>
+      <c r="G54" s="57"/>
+      <c r="H54" s="57"/>
       <c r="I54" s="34"/>
       <c r="J54" s="35"/>
       <c r="K54" s="31"/>
@@ -2430,8 +2430,8 @@
       <c r="D55" s="31"/>
       <c r="E55" s="34"/>
       <c r="F55" s="31"/>
-      <c r="G55" s="46"/>
-      <c r="H55" s="46"/>
+      <c r="G55" s="57"/>
+      <c r="H55" s="57"/>
       <c r="I55" s="34"/>
       <c r="J55" s="35"/>
       <c r="K55" s="31"/>
@@ -2448,8 +2448,8 @@
       <c r="D56" s="31"/>
       <c r="E56" s="34"/>
       <c r="F56" s="31"/>
-      <c r="G56" s="46"/>
-      <c r="H56" s="46"/>
+      <c r="G56" s="57"/>
+      <c r="H56" s="57"/>
       <c r="I56" s="34"/>
       <c r="J56" s="35"/>
       <c r="K56" s="31"/>
@@ -2466,8 +2466,8 @@
       <c r="D57" s="31"/>
       <c r="E57" s="34"/>
       <c r="F57" s="31"/>
-      <c r="G57" s="46"/>
-      <c r="H57" s="46"/>
+      <c r="G57" s="57"/>
+      <c r="H57" s="57"/>
       <c r="I57" s="34"/>
       <c r="J57" s="35"/>
       <c r="K57" s="31"/>
@@ -2484,8 +2484,8 @@
       <c r="D58" s="31"/>
       <c r="E58" s="34"/>
       <c r="F58" s="31"/>
-      <c r="G58" s="46"/>
-      <c r="H58" s="46"/>
+      <c r="G58" s="57"/>
+      <c r="H58" s="57"/>
       <c r="I58" s="34"/>
       <c r="J58" s="35"/>
       <c r="K58" s="31"/>
@@ -2502,8 +2502,8 @@
       <c r="D59" s="31"/>
       <c r="E59" s="34"/>
       <c r="F59" s="31"/>
-      <c r="G59" s="46"/>
-      <c r="H59" s="46"/>
+      <c r="G59" s="57"/>
+      <c r="H59" s="57"/>
       <c r="I59" s="34"/>
       <c r="J59" s="35"/>
       <c r="K59" s="31"/>
@@ -2520,8 +2520,8 @@
       <c r="D60" s="31"/>
       <c r="E60" s="34"/>
       <c r="F60" s="31"/>
-      <c r="G60" s="46"/>
-      <c r="H60" s="46"/>
+      <c r="G60" s="57"/>
+      <c r="H60" s="57"/>
       <c r="I60" s="34"/>
       <c r="J60" s="35"/>
       <c r="K60" s="31"/>
@@ -2538,8 +2538,8 @@
       <c r="D61" s="31"/>
       <c r="E61" s="34"/>
       <c r="F61" s="31"/>
-      <c r="G61" s="46"/>
-      <c r="H61" s="46"/>
+      <c r="G61" s="57"/>
+      <c r="H61" s="57"/>
       <c r="I61" s="34"/>
       <c r="J61" s="35"/>
       <c r="K61" s="31"/>
@@ -2556,8 +2556,8 @@
       <c r="D62" s="31"/>
       <c r="E62" s="34"/>
       <c r="F62" s="31"/>
-      <c r="G62" s="46"/>
-      <c r="H62" s="46"/>
+      <c r="G62" s="57"/>
+      <c r="H62" s="57"/>
       <c r="I62" s="34"/>
       <c r="J62" s="35"/>
       <c r="K62" s="31"/>
@@ -2574,8 +2574,8 @@
       <c r="D63" s="31"/>
       <c r="E63" s="34"/>
       <c r="F63" s="31"/>
-      <c r="G63" s="46"/>
-      <c r="H63" s="46"/>
+      <c r="G63" s="57"/>
+      <c r="H63" s="57"/>
       <c r="I63" s="34"/>
       <c r="J63" s="35"/>
       <c r="K63" s="31"/>
@@ -2592,8 +2592,8 @@
       <c r="D64" s="31"/>
       <c r="E64" s="34"/>
       <c r="F64" s="31"/>
-      <c r="G64" s="46"/>
-      <c r="H64" s="46"/>
+      <c r="G64" s="57"/>
+      <c r="H64" s="57"/>
       <c r="I64" s="34"/>
       <c r="J64" s="35"/>
       <c r="K64" s="31"/>
@@ -2610,8 +2610,8 @@
       <c r="D65" s="31"/>
       <c r="E65" s="34"/>
       <c r="F65" s="31"/>
-      <c r="G65" s="46"/>
-      <c r="H65" s="46"/>
+      <c r="G65" s="57"/>
+      <c r="H65" s="57"/>
       <c r="I65" s="34"/>
       <c r="J65" s="35"/>
       <c r="K65" s="31"/>
@@ -2628,8 +2628,8 @@
       <c r="D66" s="31"/>
       <c r="E66" s="34"/>
       <c r="F66" s="31"/>
-      <c r="G66" s="46"/>
-      <c r="H66" s="46"/>
+      <c r="G66" s="57"/>
+      <c r="H66" s="57"/>
       <c r="I66" s="34"/>
       <c r="J66" s="35"/>
       <c r="K66" s="31"/>
@@ -2646,8 +2646,8 @@
       <c r="D67" s="31"/>
       <c r="E67" s="34"/>
       <c r="F67" s="31"/>
-      <c r="G67" s="46"/>
-      <c r="H67" s="46"/>
+      <c r="G67" s="57"/>
+      <c r="H67" s="57"/>
       <c r="I67" s="34"/>
       <c r="J67" s="35"/>
       <c r="K67" s="31"/>
@@ -2664,8 +2664,8 @@
       <c r="D68" s="31"/>
       <c r="E68" s="34"/>
       <c r="F68" s="31"/>
-      <c r="G68" s="46"/>
-      <c r="H68" s="46"/>
+      <c r="G68" s="57"/>
+      <c r="H68" s="57"/>
       <c r="I68" s="34"/>
       <c r="J68" s="35"/>
       <c r="K68" s="31"/>
@@ -2682,8 +2682,8 @@
       <c r="D69" s="31"/>
       <c r="E69" s="34"/>
       <c r="F69" s="31"/>
-      <c r="G69" s="46"/>
-      <c r="H69" s="46"/>
+      <c r="G69" s="57"/>
+      <c r="H69" s="57"/>
       <c r="I69" s="34"/>
       <c r="J69" s="35"/>
       <c r="K69" s="31"/>
@@ -2700,8 +2700,8 @@
       <c r="D70" s="31"/>
       <c r="E70" s="34"/>
       <c r="F70" s="31"/>
-      <c r="G70" s="46"/>
-      <c r="H70" s="46"/>
+      <c r="G70" s="57"/>
+      <c r="H70" s="57"/>
       <c r="I70" s="34"/>
       <c r="J70" s="35"/>
       <c r="K70" s="31"/>
@@ -2718,8 +2718,8 @@
       <c r="D71" s="31"/>
       <c r="E71" s="34"/>
       <c r="F71" s="31"/>
-      <c r="G71" s="46"/>
-      <c r="H71" s="46"/>
+      <c r="G71" s="57"/>
+      <c r="H71" s="57"/>
       <c r="I71" s="34"/>
       <c r="J71" s="35"/>
       <c r="K71" s="31"/>
@@ -2736,8 +2736,8 @@
       <c r="D72" s="31"/>
       <c r="E72" s="34"/>
       <c r="F72" s="31"/>
-      <c r="G72" s="46"/>
-      <c r="H72" s="46"/>
+      <c r="G72" s="57"/>
+      <c r="H72" s="57"/>
       <c r="I72" s="34"/>
       <c r="J72" s="35"/>
       <c r="K72" s="31"/>
@@ -2754,8 +2754,8 @@
       <c r="D73" s="31"/>
       <c r="E73" s="34"/>
       <c r="F73" s="31"/>
-      <c r="G73" s="46"/>
-      <c r="H73" s="46"/>
+      <c r="G73" s="57"/>
+      <c r="H73" s="57"/>
       <c r="I73" s="34"/>
       <c r="J73" s="35"/>
       <c r="K73" s="31"/>
@@ -2772,8 +2772,8 @@
       <c r="D74" s="31"/>
       <c r="E74" s="34"/>
       <c r="F74" s="31"/>
-      <c r="G74" s="46"/>
-      <c r="H74" s="46"/>
+      <c r="G74" s="57"/>
+      <c r="H74" s="57"/>
       <c r="I74" s="34"/>
       <c r="J74" s="35"/>
       <c r="K74" s="31"/>
@@ -2790,8 +2790,8 @@
       <c r="D75" s="31"/>
       <c r="E75" s="34"/>
       <c r="F75" s="31"/>
-      <c r="G75" s="46"/>
-      <c r="H75" s="46"/>
+      <c r="G75" s="57"/>
+      <c r="H75" s="57"/>
       <c r="I75" s="34"/>
       <c r="J75" s="35"/>
       <c r="K75" s="31"/>
@@ -2808,8 +2808,8 @@
       <c r="D76" s="31"/>
       <c r="E76" s="34"/>
       <c r="F76" s="31"/>
-      <c r="G76" s="46"/>
-      <c r="H76" s="46"/>
+      <c r="G76" s="57"/>
+      <c r="H76" s="57"/>
       <c r="I76" s="34"/>
       <c r="J76" s="35"/>
       <c r="K76" s="31"/>
@@ -2826,8 +2826,8 @@
       <c r="D77" s="31"/>
       <c r="E77" s="34"/>
       <c r="F77" s="31"/>
-      <c r="G77" s="46"/>
-      <c r="H77" s="46"/>
+      <c r="G77" s="57"/>
+      <c r="H77" s="57"/>
       <c r="I77" s="34"/>
       <c r="J77" s="35"/>
       <c r="K77" s="31"/>
@@ -2844,8 +2844,8 @@
       <c r="D78" s="31"/>
       <c r="E78" s="34"/>
       <c r="F78" s="31"/>
-      <c r="G78" s="46"/>
-      <c r="H78" s="46"/>
+      <c r="G78" s="57"/>
+      <c r="H78" s="57"/>
       <c r="I78" s="34"/>
       <c r="J78" s="35"/>
       <c r="K78" s="31"/>
@@ -2862,8 +2862,8 @@
       <c r="D79" s="31"/>
       <c r="E79" s="34"/>
       <c r="F79" s="31"/>
-      <c r="G79" s="46"/>
-      <c r="H79" s="46"/>
+      <c r="G79" s="57"/>
+      <c r="H79" s="57"/>
       <c r="I79" s="34"/>
       <c r="J79" s="35"/>
       <c r="K79" s="31"/>
@@ -2880,8 +2880,8 @@
       <c r="D80" s="31"/>
       <c r="E80" s="34"/>
       <c r="F80" s="31"/>
-      <c r="G80" s="46"/>
-      <c r="H80" s="46"/>
+      <c r="G80" s="57"/>
+      <c r="H80" s="57"/>
       <c r="I80" s="34"/>
       <c r="J80" s="35"/>
       <c r="K80" s="31"/>
@@ -2898,8 +2898,8 @@
       <c r="D81" s="31"/>
       <c r="E81" s="34"/>
       <c r="F81" s="31"/>
-      <c r="G81" s="46"/>
-      <c r="H81" s="46"/>
+      <c r="G81" s="57"/>
+      <c r="H81" s="57"/>
       <c r="I81" s="34"/>
       <c r="J81" s="35"/>
       <c r="K81" s="31"/>
@@ -2916,8 +2916,8 @@
       <c r="D82" s="31"/>
       <c r="E82" s="34"/>
       <c r="F82" s="31"/>
-      <c r="G82" s="46"/>
-      <c r="H82" s="46"/>
+      <c r="G82" s="57"/>
+      <c r="H82" s="57"/>
       <c r="I82" s="34"/>
       <c r="J82" s="35"/>
       <c r="K82" s="31"/>
@@ -2934,8 +2934,8 @@
       <c r="D83" s="31"/>
       <c r="E83" s="34"/>
       <c r="F83" s="31"/>
-      <c r="G83" s="46"/>
-      <c r="H83" s="46"/>
+      <c r="G83" s="57"/>
+      <c r="H83" s="57"/>
       <c r="I83" s="34"/>
       <c r="J83" s="35"/>
       <c r="K83" s="31"/>
@@ -2952,8 +2952,8 @@
       <c r="D84" s="31"/>
       <c r="E84" s="34"/>
       <c r="F84" s="31"/>
-      <c r="G84" s="46"/>
-      <c r="H84" s="46"/>
+      <c r="G84" s="57"/>
+      <c r="H84" s="57"/>
       <c r="I84" s="34"/>
       <c r="J84" s="35"/>
       <c r="K84" s="31"/>
@@ -2970,8 +2970,8 @@
       <c r="D85" s="31"/>
       <c r="E85" s="34"/>
       <c r="F85" s="31"/>
-      <c r="G85" s="46"/>
-      <c r="H85" s="46"/>
+      <c r="G85" s="57"/>
+      <c r="H85" s="57"/>
       <c r="I85" s="34"/>
       <c r="J85" s="35"/>
       <c r="K85" s="31"/>
@@ -2988,8 +2988,8 @@
       <c r="D86" s="31"/>
       <c r="E86" s="34"/>
       <c r="F86" s="31"/>
-      <c r="G86" s="46"/>
-      <c r="H86" s="46"/>
+      <c r="G86" s="57"/>
+      <c r="H86" s="57"/>
       <c r="I86" s="34"/>
       <c r="J86" s="35"/>
       <c r="K86" s="31"/>
@@ -3006,8 +3006,8 @@
       <c r="D87" s="31"/>
       <c r="E87" s="34"/>
       <c r="F87" s="31"/>
-      <c r="G87" s="46"/>
-      <c r="H87" s="46"/>
+      <c r="G87" s="57"/>
+      <c r="H87" s="57"/>
       <c r="I87" s="34"/>
       <c r="J87" s="35"/>
       <c r="K87" s="31"/>
@@ -3024,8 +3024,8 @@
       <c r="D88" s="31"/>
       <c r="E88" s="34"/>
       <c r="F88" s="31"/>
-      <c r="G88" s="46"/>
-      <c r="H88" s="46"/>
+      <c r="G88" s="57"/>
+      <c r="H88" s="57"/>
       <c r="I88" s="34"/>
       <c r="J88" s="35"/>
       <c r="K88" s="31"/>
@@ -3042,8 +3042,8 @@
       <c r="D89" s="31"/>
       <c r="E89" s="34"/>
       <c r="F89" s="31"/>
-      <c r="G89" s="46"/>
-      <c r="H89" s="46"/>
+      <c r="G89" s="57"/>
+      <c r="H89" s="57"/>
       <c r="I89" s="34"/>
       <c r="J89" s="35"/>
       <c r="K89" s="31"/>
@@ -3060,8 +3060,8 @@
       <c r="D90" s="31"/>
       <c r="E90" s="34"/>
       <c r="F90" s="31"/>
-      <c r="G90" s="46"/>
-      <c r="H90" s="46"/>
+      <c r="G90" s="57"/>
+      <c r="H90" s="57"/>
       <c r="I90" s="34"/>
       <c r="J90" s="35"/>
       <c r="K90" s="31"/>
@@ -3078,8 +3078,8 @@
       <c r="D91" s="31"/>
       <c r="E91" s="34"/>
       <c r="F91" s="31"/>
-      <c r="G91" s="46"/>
-      <c r="H91" s="46"/>
+      <c r="G91" s="57"/>
+      <c r="H91" s="57"/>
       <c r="I91" s="34"/>
       <c r="J91" s="35"/>
       <c r="K91" s="31"/>
@@ -3096,8 +3096,8 @@
       <c r="D92" s="31"/>
       <c r="E92" s="34"/>
       <c r="F92" s="31"/>
-      <c r="G92" s="46"/>
-      <c r="H92" s="46"/>
+      <c r="G92" s="57"/>
+      <c r="H92" s="57"/>
       <c r="I92" s="34"/>
       <c r="J92" s="35"/>
       <c r="K92" s="31"/>
@@ -3114,8 +3114,8 @@
       <c r="D93" s="31"/>
       <c r="E93" s="34"/>
       <c r="F93" s="31"/>
-      <c r="G93" s="46"/>
-      <c r="H93" s="46"/>
+      <c r="G93" s="57"/>
+      <c r="H93" s="57"/>
       <c r="I93" s="34"/>
       <c r="J93" s="35"/>
       <c r="K93" s="31"/>
@@ -3132,8 +3132,8 @@
       <c r="D94" s="31"/>
       <c r="E94" s="34"/>
       <c r="F94" s="31"/>
-      <c r="G94" s="46"/>
-      <c r="H94" s="46"/>
+      <c r="G94" s="57"/>
+      <c r="H94" s="57"/>
       <c r="I94" s="34"/>
       <c r="J94" s="35"/>
       <c r="K94" s="31"/>
@@ -3150,8 +3150,8 @@
       <c r="D95" s="31"/>
       <c r="E95" s="34"/>
       <c r="F95" s="31"/>
-      <c r="G95" s="46"/>
-      <c r="H95" s="46"/>
+      <c r="G95" s="57"/>
+      <c r="H95" s="57"/>
       <c r="I95" s="34"/>
       <c r="J95" s="35"/>
       <c r="K95" s="31"/>
@@ -3167,8 +3167,8 @@
       <c r="D96" s="31"/>
       <c r="E96" s="34"/>
       <c r="F96" s="31"/>
-      <c r="G96" s="46"/>
-      <c r="H96" s="46"/>
+      <c r="G96" s="57"/>
+      <c r="H96" s="57"/>
       <c r="I96" s="34"/>
       <c r="J96" s="35"/>
       <c r="K96" s="31"/>
@@ -3184,8 +3184,8 @@
       <c r="D97" s="31"/>
       <c r="E97" s="34"/>
       <c r="F97" s="31"/>
-      <c r="G97" s="46"/>
-      <c r="H97" s="46"/>
+      <c r="G97" s="57"/>
+      <c r="H97" s="57"/>
       <c r="I97" s="34"/>
       <c r="J97" s="35"/>
       <c r="K97" s="31"/>
@@ -3201,8 +3201,8 @@
       <c r="D98" s="31"/>
       <c r="E98" s="34"/>
       <c r="F98" s="31"/>
-      <c r="G98" s="46"/>
-      <c r="H98" s="46"/>
+      <c r="G98" s="57"/>
+      <c r="H98" s="57"/>
       <c r="I98" s="34"/>
       <c r="J98" s="35"/>
       <c r="K98" s="31"/>
@@ -3218,8 +3218,8 @@
       <c r="D99" s="31"/>
       <c r="E99" s="34"/>
       <c r="F99" s="31"/>
-      <c r="G99" s="46"/>
-      <c r="H99" s="46"/>
+      <c r="G99" s="57"/>
+      <c r="H99" s="57"/>
       <c r="I99" s="34"/>
       <c r="J99" s="35"/>
       <c r="K99" s="31"/>
@@ -3235,8 +3235,8 @@
       <c r="D100" s="31"/>
       <c r="E100" s="34"/>
       <c r="F100" s="31"/>
-      <c r="G100" s="46"/>
-      <c r="H100" s="46"/>
+      <c r="G100" s="57"/>
+      <c r="H100" s="57"/>
       <c r="I100" s="34"/>
       <c r="J100" s="35"/>
       <c r="K100" s="31"/>
@@ -3252,8 +3252,8 @@
       <c r="D101" s="31"/>
       <c r="E101" s="34"/>
       <c r="F101" s="31"/>
-      <c r="G101" s="46"/>
-      <c r="H101" s="46"/>
+      <c r="G101" s="57"/>
+      <c r="H101" s="57"/>
       <c r="I101" s="34"/>
       <c r="J101" s="35"/>
       <c r="K101" s="31"/>
@@ -3269,8 +3269,8 @@
       <c r="D102" s="31"/>
       <c r="E102" s="34"/>
       <c r="F102" s="31"/>
-      <c r="G102" s="46"/>
-      <c r="H102" s="46"/>
+      <c r="G102" s="57"/>
+      <c r="H102" s="57"/>
       <c r="I102" s="34"/>
       <c r="J102" s="35"/>
       <c r="K102" s="31"/>
@@ -3286,8 +3286,8 @@
       <c r="D103" s="31"/>
       <c r="E103" s="34"/>
       <c r="F103" s="31"/>
-      <c r="G103" s="46"/>
-      <c r="H103" s="46"/>
+      <c r="G103" s="57"/>
+      <c r="H103" s="57"/>
       <c r="I103" s="34"/>
       <c r="J103" s="35"/>
       <c r="K103" s="31"/>
@@ -3303,8 +3303,8 @@
       <c r="D104" s="31"/>
       <c r="E104" s="34"/>
       <c r="F104" s="31"/>
-      <c r="G104" s="46"/>
-      <c r="H104" s="46"/>
+      <c r="G104" s="57"/>
+      <c r="H104" s="57"/>
       <c r="I104" s="34"/>
       <c r="J104" s="35"/>
       <c r="K104" s="31"/>
@@ -3320,8 +3320,8 @@
       <c r="D105" s="31"/>
       <c r="E105" s="34"/>
       <c r="F105" s="31"/>
-      <c r="G105" s="46"/>
-      <c r="H105" s="46"/>
+      <c r="G105" s="57"/>
+      <c r="H105" s="57"/>
       <c r="I105" s="34"/>
       <c r="J105" s="35"/>
       <c r="K105" s="31"/>
@@ -3337,8 +3337,8 @@
       <c r="D106" s="31"/>
       <c r="E106" s="34"/>
       <c r="F106" s="31"/>
-      <c r="G106" s="46"/>
-      <c r="H106" s="46"/>
+      <c r="G106" s="57"/>
+      <c r="H106" s="57"/>
       <c r="I106" s="34"/>
       <c r="J106" s="35"/>
       <c r="K106" s="31"/>
@@ -3354,8 +3354,8 @@
       <c r="D107" s="31"/>
       <c r="E107" s="34"/>
       <c r="F107" s="31"/>
-      <c r="G107" s="46"/>
-      <c r="H107" s="46"/>
+      <c r="G107" s="57"/>
+      <c r="H107" s="57"/>
       <c r="I107" s="34"/>
       <c r="J107" s="35"/>
       <c r="K107" s="31"/>
@@ -3371,8 +3371,8 @@
       <c r="D108" s="31"/>
       <c r="E108" s="34"/>
       <c r="F108" s="31"/>
-      <c r="G108" s="46"/>
-      <c r="H108" s="46"/>
+      <c r="G108" s="57"/>
+      <c r="H108" s="57"/>
       <c r="I108" s="34"/>
       <c r="J108" s="35"/>
       <c r="K108" s="31"/>
@@ -3388,8 +3388,8 @@
       <c r="D109" s="31"/>
       <c r="E109" s="34"/>
       <c r="F109" s="31"/>
-      <c r="G109" s="46"/>
-      <c r="H109" s="46"/>
+      <c r="G109" s="57"/>
+      <c r="H109" s="57"/>
       <c r="I109" s="34"/>
       <c r="J109" s="35"/>
       <c r="K109" s="31"/>
@@ -3405,8 +3405,8 @@
       <c r="D110" s="31"/>
       <c r="E110" s="34"/>
       <c r="F110" s="31"/>
-      <c r="G110" s="46"/>
-      <c r="H110" s="46"/>
+      <c r="G110" s="57"/>
+      <c r="H110" s="57"/>
       <c r="I110" s="34"/>
       <c r="J110" s="35"/>
       <c r="K110" s="31"/>
@@ -5094,15 +5094,98 @@
     </row>
   </sheetData>
   <mergeCells count="111">
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="G101:H101"/>
+    <mergeCell ref="G108:H108"/>
+    <mergeCell ref="G109:H109"/>
+    <mergeCell ref="G110:H110"/>
+    <mergeCell ref="G102:H102"/>
+    <mergeCell ref="G103:H103"/>
+    <mergeCell ref="G104:H104"/>
+    <mergeCell ref="G105:H105"/>
+    <mergeCell ref="G106:H106"/>
+    <mergeCell ref="G107:H107"/>
+    <mergeCell ref="G92:H92"/>
+    <mergeCell ref="G93:H93"/>
+    <mergeCell ref="G94:H94"/>
+    <mergeCell ref="G95:H95"/>
+    <mergeCell ref="G96:H96"/>
+    <mergeCell ref="G97:H97"/>
+    <mergeCell ref="G98:H98"/>
+    <mergeCell ref="G99:H99"/>
+    <mergeCell ref="G100:H100"/>
+    <mergeCell ref="G83:H83"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="G85:H85"/>
+    <mergeCell ref="G86:H86"/>
+    <mergeCell ref="G87:H87"/>
+    <mergeCell ref="G88:H88"/>
+    <mergeCell ref="G89:H89"/>
+    <mergeCell ref="G90:H90"/>
+    <mergeCell ref="G91:H91"/>
+    <mergeCell ref="G74:H74"/>
+    <mergeCell ref="G75:H75"/>
+    <mergeCell ref="G76:H76"/>
+    <mergeCell ref="G77:H77"/>
+    <mergeCell ref="G78:H78"/>
+    <mergeCell ref="G79:H79"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="G82:H82"/>
+    <mergeCell ref="G65:H65"/>
+    <mergeCell ref="G66:H66"/>
+    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="G69:H69"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="G72:H72"/>
+    <mergeCell ref="G73:H73"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="G61:H61"/>
+    <mergeCell ref="G62:H62"/>
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G27:H27"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="D4:E4"/>
@@ -5113,98 +5196,15 @@
     <mergeCell ref="G15:H15"/>
     <mergeCell ref="G16:H16"/>
     <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="G60:H60"/>
-    <mergeCell ref="G61:H61"/>
-    <mergeCell ref="G62:H62"/>
-    <mergeCell ref="G63:H63"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="G65:H65"/>
-    <mergeCell ref="G66:H66"/>
-    <mergeCell ref="G67:H67"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="G69:H69"/>
-    <mergeCell ref="G70:H70"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="G72:H72"/>
-    <mergeCell ref="G73:H73"/>
-    <mergeCell ref="G74:H74"/>
-    <mergeCell ref="G75:H75"/>
-    <mergeCell ref="G76:H76"/>
-    <mergeCell ref="G77:H77"/>
-    <mergeCell ref="G78:H78"/>
-    <mergeCell ref="G79:H79"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="G81:H81"/>
-    <mergeCell ref="G82:H82"/>
-    <mergeCell ref="G83:H83"/>
-    <mergeCell ref="G84:H84"/>
-    <mergeCell ref="G85:H85"/>
-    <mergeCell ref="G86:H86"/>
-    <mergeCell ref="G87:H87"/>
-    <mergeCell ref="G88:H88"/>
-    <mergeCell ref="G89:H89"/>
-    <mergeCell ref="G90:H90"/>
-    <mergeCell ref="G91:H91"/>
-    <mergeCell ref="G92:H92"/>
-    <mergeCell ref="G93:H93"/>
-    <mergeCell ref="G94:H94"/>
-    <mergeCell ref="G95:H95"/>
-    <mergeCell ref="G96:H96"/>
-    <mergeCell ref="G97:H97"/>
-    <mergeCell ref="G98:H98"/>
-    <mergeCell ref="G99:H99"/>
-    <mergeCell ref="G100:H100"/>
-    <mergeCell ref="G101:H101"/>
-    <mergeCell ref="G108:H108"/>
-    <mergeCell ref="G109:H109"/>
-    <mergeCell ref="G110:H110"/>
-    <mergeCell ref="G102:H102"/>
-    <mergeCell ref="G103:H103"/>
-    <mergeCell ref="G104:H104"/>
-    <mergeCell ref="G105:H105"/>
-    <mergeCell ref="G106:H106"/>
-    <mergeCell ref="G107:H107"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="D7:E7"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
